--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1863211.974715816</v>
+        <v>1919741.534695401</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903709</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768292</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7330914.345681031</v>
+        <v>7558696.782290498</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +664,19 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>169.2432890400048</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>178.7295147772061</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>32.49641236331089</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>258.0733269906323</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>165.4609622848717</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>30.20272287102858</v>
+        <v>207.2249922876963</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1117,7 +1119,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1133,25 +1135,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>13.00730633474442</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>51.68844898848702</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1193,13 +1195,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2075313270138395</v>
+        <v>154.3846231516498</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -1388,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>53.20093248929926</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>335.5898538829906</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1528,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -1591,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>59.60693431616814</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1613,19 +1615,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>372.3536886992977</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>308.5654191253191</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.42227043795236</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>216.6467621941107</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>47.04242576916274</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2239,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>24.4725024570689</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2305,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>358.7938392237638</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>343.2559819443612</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2476,16 +2478,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>76.43104772188501</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>51.94398755715822</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>343.5575398289572</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>304.274343829684</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2612,10 +2614,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2713,25 +2715,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>161.6218091235291</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>249.8416865264124</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>314.0518665500871</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2807,10 +2809,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2950,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>19.40174340593345</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3013,7 +3015,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>95.64534543336242</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>177.3516742227375</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3086,7 +3088,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>123.2715627317524</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3193,10 +3195,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>78.63919757085986</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>256.7068288235288</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4066896505621</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3332,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>294.4213123055028</v>
       </c>
     </row>
     <row r="36">
@@ -3424,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>48.01732390352666</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>180.5523592757318</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>401.5578040935733</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>37.78331767565507</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3661,16 +3663,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>67.70702316502442</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>62.10780496010665</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>282.3691491136576</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3800,13 +3802,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>63.78912697217469</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>168.5189235446976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3979,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>49.02746394088942</v>
       </c>
       <c r="D44" t="n">
-        <v>245.2743358270646</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>159.5167033879898</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8962612405996416</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>741.1719557267563</v>
+        <v>1455.826617762472</v>
       </c>
       <c r="C2" t="n">
-        <v>735.0877690804305</v>
+        <v>1449.742431116146</v>
       </c>
       <c r="D2" t="n">
-        <v>564.1349518683044</v>
+        <v>1449.31890524961</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8351404256051</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4328,52 +4330,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>1846.479361096332</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X2" t="n">
-        <v>1552.329808443156</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y2" t="n">
-        <v>1151.393135391246</v>
+        <v>1866.047797426961</v>
       </c>
     </row>
     <row r="3">
@@ -4416,7 +4418,7 @@
         <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>1221.566882129794</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="N3" t="n">
         <v>1738.409816796119</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>708.4628400537953</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>708.4628400537953</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>708.4628400537953</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>708.4628400537953</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>708.4628400537953</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>708.4628400537953</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1816.589795035412</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1577.041056012114</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1294.242908558238</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>1020.35716349776</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>741.2874990066346</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>708.4628400537953</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>708.4628400537953</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1542.752026609714</v>
+        <v>1378.723472461974</v>
       </c>
       <c r="C5" t="n">
-        <v>1132.627435922984</v>
+        <v>1372.639285815648</v>
       </c>
       <c r="D5" t="n">
-        <v>728.1635060160443</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E5" t="n">
-        <v>467.4833777426783</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4607,10 +4609,10 @@
         <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.973206274203</v>
+        <v>1785.840921137969</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.973206274203</v>
+        <v>1384.904248086059</v>
       </c>
     </row>
     <row r="6">
@@ -4623,7 +4625,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D6" t="n">
         <v>469.7036984844747</v>
@@ -4632,22 +4634,22 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G6" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960218</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960218</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>497.5713418949009</v>
       </c>
       <c r="L6" t="n">
         <v>1014.414276561226</v>
@@ -4656,13 +4658,13 @@
         <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767164</v>
+        <v>1531.257211227552</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>2048.100145893877</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>489.9926484891412</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C7" t="n">
-        <v>489.9926484891412</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D7" t="n">
-        <v>489.9926484891412</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E7" t="n">
-        <v>489.9926484891412</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3615225997325</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G7" t="n">
         <v>158.1111315252759</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1455.383463046025</v>
+        <v>1361.845808222476</v>
       </c>
       <c r="V7" t="n">
-        <v>1181.497717985547</v>
+        <v>1087.960063161998</v>
       </c>
       <c r="W7" t="n">
-        <v>902.428053494421</v>
+        <v>808.8903986708722</v>
       </c>
       <c r="X7" t="n">
-        <v>902.428053494421</v>
+        <v>570.5465365305556</v>
       </c>
       <c r="Y7" t="n">
-        <v>677.6923548831857</v>
+        <v>345.8108379193203</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>935.8539802057044</v>
+        <v>1740.939116293115</v>
       </c>
       <c r="C8" t="n">
-        <v>929.7697935593785</v>
+        <v>1727.800423025697</v>
       </c>
       <c r="D8" t="n">
-        <v>929.3462676928431</v>
+        <v>1323.336493118757</v>
       </c>
       <c r="E8" t="n">
-        <v>515.0060522097398</v>
+        <v>908.996277635654</v>
       </c>
       <c r="F8" t="n">
-        <v>93.97564016342733</v>
+        <v>892.0062696297456</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>483.2779855225778</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502957</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>340.2031969351232</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>878.3626980441627</v>
       </c>
       <c r="L8" t="n">
-        <v>537.7254774811266</v>
+        <v>1590.954097856401</v>
       </c>
       <c r="M8" t="n">
-        <v>1054.568412147452</v>
+        <v>2367.272688848155</v>
       </c>
       <c r="N8" t="n">
-        <v>1054.568412147452</v>
+        <v>3120.453705486773</v>
       </c>
       <c r="O8" t="n">
-        <v>1571.411346813777</v>
+        <v>3764.084561903878</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>3939.168620883587</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>4260.329627678879</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368444</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>4165.605198162544</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>3943.398714109403</v>
       </c>
       <c r="U8" t="n">
-        <v>1695.912714533713</v>
+        <v>3686.338222368913</v>
       </c>
       <c r="V8" t="n">
-        <v>1346.075159870194</v>
+        <v>3336.500667705394</v>
       </c>
       <c r="W8" t="n">
-        <v>1346.075159870194</v>
+        <v>2952.740366840562</v>
       </c>
       <c r="X8" t="n">
-        <v>1346.075159870194</v>
+        <v>2552.096969009515</v>
       </c>
       <c r="Y8" t="n">
-        <v>1346.075159870194</v>
+        <v>2151.160295957605</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.8485673539033</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028489</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222413</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145693</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970739</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114126</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471287</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="L9" t="n">
-        <v>234.5779431922353</v>
+        <v>747.1058973866571</v>
       </c>
       <c r="M9" t="n">
-        <v>537.7254774811262</v>
+        <v>1590.082978081224</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147451</v>
+        <v>1590.082978081224</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432178</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757405</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750439</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894899</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>541.0196642740227</v>
+        <v>246.9285405990494</v>
       </c>
       <c r="C10" t="n">
-        <v>369.9262918357392</v>
+        <v>246.9285405990494</v>
       </c>
       <c r="D10" t="n">
-        <v>369.9262918357392</v>
+        <v>246.9285405990494</v>
       </c>
       <c r="E10" t="n">
-        <v>209.0154767040586</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="F10" t="n">
-        <v>209.0154767040586</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725794</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948174</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.549702874878</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.8137593153713</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709622</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036096</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1429.024853968129</v>
       </c>
       <c r="T10" t="n">
-        <v>1246.342524902554</v>
+        <v>1189.476114944831</v>
       </c>
       <c r="U10" t="n">
-        <v>1246.342524902554</v>
+        <v>906.6779674909556</v>
       </c>
       <c r="V10" t="n">
-        <v>1246.132897299509</v>
+        <v>750.7339037014103</v>
       </c>
       <c r="W10" t="n">
-        <v>967.0632328083836</v>
+        <v>471.6642392102847</v>
       </c>
       <c r="X10" t="n">
-        <v>728.7193706680671</v>
+        <v>471.6642392102847</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.7193706680671</v>
+        <v>246.9285405990494</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1706.341423399534</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>1296.216832712804</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>1296.216832712804</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>881.8766172297003</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F11" t="n">
-        <v>881.8766172297003</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G11" t="n">
-        <v>473.1483331225325</v>
+        <v>457.8905107086616</v>
       </c>
       <c r="H11" t="n">
-        <v>162.2398357502505</v>
+        <v>146.9820133363796</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>2357.143036448109</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>3110.324053086727</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3265.246955447032</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2830.018047703134</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2446.257746838303</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2107.278096451444</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>1706.341423399534</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>918.8651537618904</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N12" t="n">
-        <v>1181.26739238268</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O12" t="n">
-        <v>1181.26739238268</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P12" t="n">
-        <v>1742.97328487121</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2092.817749555194</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.88807306732367</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C13" t="n">
-        <v>75.88807306732367</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D13" t="n">
-        <v>75.88807306732367</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.622483243484</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1094.073744220186</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U13" t="n">
-        <v>811.2755967663099</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V13" t="n">
-        <v>537.3898517058319</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="W13" t="n">
-        <v>258.3201872147063</v>
+        <v>883.2954166397794</v>
       </c>
       <c r="X13" t="n">
-        <v>75.88807306732367</v>
+        <v>644.9515544994629</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.88807306732367</v>
+        <v>584.7425299376769</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2134.575505297576</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>1724.450914610847</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>1319.986984703907</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>905.6467692208039</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F14" t="n">
-        <v>484.6163571744915</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G14" t="n">
-        <v>75.88807306732367</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1868.435082391309</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2621.616099029927</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3265.246955447032</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>2830.018047703134</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2446.257746838303</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2134.575505297576</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2134.575505297576</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>531.6943293326224</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>531.6943293326224</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.82691174531</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N15" t="n">
-        <v>1210.82691174531</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O15" t="n">
-        <v>1210.82691174531</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P15" t="n">
-        <v>1772.53280423384</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1520.014251363573</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1333.622483243484</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1094.073744220186</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>811.2755967663099</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>537.3898517058319</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>258.3201872147063</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2462.839627293158</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.715036606428</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4630.445217422097</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4408.238733368956</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4408.238733368956</v>
+        <v>4085.862211944715</v>
       </c>
       <c r="V17" t="n">
-        <v>4058.401178705436</v>
+        <v>3736.024657281195</v>
       </c>
       <c r="W17" t="n">
-        <v>3674.640877840605</v>
+        <v>3352.264356416364</v>
       </c>
       <c r="X17" t="n">
-        <v>3273.997480009557</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y17" t="n">
-        <v>2873.060806957647</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N18" t="n">
-        <v>1210.13812587521</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O18" t="n">
-        <v>1914.095216421104</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>1914.095216421104</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>1070.600505101703</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>899.507132663419</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.295707834299</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V19" t="n">
-        <v>826.4099627738212</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W19" t="n">
-        <v>547.3402982826956</v>
+        <v>1258.300211495747</v>
       </c>
       <c r="X19" t="n">
-        <v>308.996436142379</v>
+        <v>1258.300211495747</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.2436976906228</v>
+        <v>1258.300211495747</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2462.839627293158</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C20" t="n">
-        <v>2052.715036606428</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5753,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5783,19 +5785,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4408.238733368956</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V20" t="n">
-        <v>4058.401178705436</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W20" t="n">
-        <v>3674.640877840605</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X20" t="n">
-        <v>3273.997480009557</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y20" t="n">
-        <v>2873.060806957647</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="21">
@@ -5832,16 +5834,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>212.9817385874103</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>874.0699105066985</v>
+        <v>735.0499203580262</v>
       </c>
       <c r="M21" t="n">
-        <v>874.0699105066985</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N21" t="n">
-        <v>874.0699105066985</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O21" t="n">
         <v>1578.027001052593</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.2436976906228</v>
+        <v>405.4028154761649</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>234.3094430378814</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>234.3094430378814</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5935,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1392.076815447654</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U22" t="n">
-        <v>1109.278667993779</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V22" t="n">
-        <v>835.3929229333004</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="W22" t="n">
-        <v>556.3232584421747</v>
+        <v>643.7466776164815</v>
       </c>
       <c r="X22" t="n">
-        <v>317.9793963018581</v>
+        <v>405.4028154761649</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.2436976906228</v>
+        <v>405.4028154761649</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2462.839627293158</v>
+        <v>2502.88112528686</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.715036606428</v>
+        <v>2092.75653460013</v>
       </c>
       <c r="D23" t="n">
-        <v>1648.251106699488</v>
+        <v>1688.292604693191</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>1273.952389210087</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>852.921977163775</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674175</v>
       </c>
       <c r="L23" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079656</v>
       </c>
       <c r="M23" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.49866107141</v>
       </c>
       <c r="N23" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710028</v>
       </c>
       <c r="O23" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046284</v>
       </c>
       <c r="Q23" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R23" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U23" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V23" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.799278868091</v>
       </c>
       <c r="W23" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003259</v>
       </c>
       <c r="X23" t="n">
-        <v>3273.997480009557</v>
+        <v>3314.038978003259</v>
       </c>
       <c r="Y23" t="n">
-        <v>2873.060806957647</v>
+        <v>2913.102304951349</v>
       </c>
     </row>
     <row r="24">
@@ -6054,7 +6056,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G24" t="n">
         <v>184.7395020346666</v>
@@ -6063,25 +6065,25 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>170.4467761975773</v>
+        <v>640.9315149955648</v>
       </c>
       <c r="C25" t="n">
-        <v>170.4467761975773</v>
+        <v>469.8381425572813</v>
       </c>
       <c r="D25" t="n">
-        <v>170.4467761975773</v>
+        <v>310.3434978801914</v>
       </c>
       <c r="E25" t="n">
-        <v>170.4467761975773</v>
+        <v>310.3434978801914</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>145.7123719907826</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>145.7123719907826</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>145.7123719907826</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J25" t="n">
         <v>107.3262470958333</v>
@@ -6169,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U25" t="n">
-        <v>1100.295707834299</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V25" t="n">
-        <v>1100.295707834299</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W25" t="n">
-        <v>821.2260433431736</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X25" t="n">
-        <v>582.8821812028571</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="Y25" t="n">
-        <v>358.1464825916217</v>
+        <v>828.6312213896092</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2452.075282119331</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>2041.950691432601</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
         <v>1734.602869382415</v>
@@ -6224,7 +6226,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6239,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6260,16 +6262,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3663.876532666778</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X26" t="n">
-        <v>3263.23313483573</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y26" t="n">
-        <v>2862.29646178382</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="27">
@@ -6309,13 +6311,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1187.723755216753</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1187.723755216753</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>1187.723755216753</v>
       </c>
       <c r="W28" t="n">
-        <v>1370.277254385804</v>
+        <v>908.6540907256278</v>
       </c>
       <c r="X28" t="n">
-        <v>1370.277254385804</v>
+        <v>670.3102285853113</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>445.574529974076</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2459.725286714852</v>
+        <v>2452.075282119332</v>
       </c>
       <c r="C29" t="n">
-        <v>2049.600696028122</v>
+        <v>2041.950691432602</v>
       </c>
       <c r="D29" t="n">
-        <v>1645.136766121183</v>
+        <v>1637.486761525663</v>
       </c>
       <c r="E29" t="n">
-        <v>1230.796550638079</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>809.7661385917668</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>401.0378544845989</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674175</v>
       </c>
       <c r="L29" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079656</v>
       </c>
       <c r="M29" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.49866107141</v>
       </c>
       <c r="N29" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710028</v>
       </c>
       <c r="O29" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046284</v>
       </c>
       <c r="Q29" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R29" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U29" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V29" t="n">
-        <v>4055.286838127131</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="W29" t="n">
-        <v>3671.526537262299</v>
+        <v>3663.876532666779</v>
       </c>
       <c r="X29" t="n">
-        <v>3270.883139431251</v>
+        <v>3263.233134835731</v>
       </c>
       <c r="Y29" t="n">
-        <v>2869.946466379341</v>
+        <v>2862.296461783821</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6530,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F30" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G30" t="n">
         <v>184.7395020346666</v>
@@ -6537,25 +6539,25 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I30" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L30" t="n">
-        <v>562.1177108836107</v>
+        <v>754.3318696099111</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.3370701289063</v>
+        <v>580.8995485738499</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>580.8995485738499</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>421.4049038967599</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J31" t="n">
         <v>107.3262470958333</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>1603.044873699419</v>
       </c>
       <c r="S31" t="n">
-        <v>1436.250826191383</v>
+        <v>1416.653105579329</v>
       </c>
       <c r="T31" t="n">
-        <v>1196.702087168085</v>
+        <v>1416.653105579329</v>
       </c>
       <c r="U31" t="n">
-        <v>913.9039397142094</v>
+        <v>1133.854958125454</v>
       </c>
       <c r="V31" t="n">
-        <v>640.0181946537314</v>
+        <v>859.9692130649755</v>
       </c>
       <c r="W31" t="n">
-        <v>360.9485301626057</v>
+        <v>580.8995485738499</v>
       </c>
       <c r="X31" t="n">
-        <v>264.3370701289063</v>
+        <v>580.8995485738499</v>
       </c>
       <c r="Y31" t="n">
-        <v>264.3370701289063</v>
+        <v>580.8995485738499</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2237.518802661711</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1827.394211974981</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
         <v>1648.251106699488</v>
@@ -6692,13 +6694,13 @@
         <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I32" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6719,31 +6721,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R32" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T32" t="n">
         <v>4439.978400477999</v>
       </c>
       <c r="U32" t="n">
-        <v>4182.917908737509</v>
+        <v>4182.91790873751</v>
       </c>
       <c r="V32" t="n">
-        <v>3833.080354073989</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>3048.67665537811</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2647.7399823262</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6765,7 +6767,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G33" t="n">
         <v>184.7395020346666</v>
@@ -6774,19 +6776,19 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L33" t="n">
-        <v>592.7987223006619</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="M33" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851895</v>
       </c>
       <c r="N33" t="n">
         <v>1435.775802995229</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>419.9887334421693</v>
+        <v>776.6791273693823</v>
       </c>
       <c r="C34" t="n">
-        <v>419.9887334421693</v>
+        <v>776.6791273693823</v>
       </c>
       <c r="D34" t="n">
-        <v>260.4940887650794</v>
+        <v>617.1844826922922</v>
       </c>
       <c r="E34" t="n">
-        <v>260.4940887650794</v>
+        <v>456.2736675606117</v>
       </c>
       <c r="F34" t="n">
-        <v>260.4940887650794</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J34" t="n">
         <v>107.3262470958333</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>1196.702087168085</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U34" t="n">
-        <v>937.4022600736116</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V34" t="n">
-        <v>937.4022600736116</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="W34" t="n">
-        <v>658.332595582486</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="X34" t="n">
-        <v>419.9887334421693</v>
+        <v>776.6791273693823</v>
       </c>
       <c r="Y34" t="n">
-        <v>419.9887334421693</v>
+        <v>776.6791273693823</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,22 +6964,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4408.238733368956</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y35" t="n">
         <v>2873.060806957647</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>3458.672769375206</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>3958.227793985246</v>
+        <v>1406.216283632599</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>260.4940887650794</v>
+        <v>425.2478852605868</v>
       </c>
       <c r="C37" t="n">
-        <v>260.4940887650794</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D37" t="n">
-        <v>260.4940887650794</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E37" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1574.140246934173</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>1334.591507910875</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U37" t="n">
-        <v>1051.793360457</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V37" t="n">
-        <v>777.9076153965216</v>
+        <v>929.0532483629478</v>
       </c>
       <c r="W37" t="n">
-        <v>498.837950905396</v>
+        <v>649.9835838718221</v>
       </c>
       <c r="X37" t="n">
-        <v>260.4940887650794</v>
+        <v>649.9835838718221</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.4940887650794</v>
+        <v>425.2478852605868</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2459.725286714852</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>2049.600696028122</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1645.136766121183</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>1230.796550638079</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>809.7661385917668</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K38" t="n">
         <v>885.5886702674165</v>
@@ -7193,31 +7195,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4405.12439279065</v>
+        <v>4182.91790873751</v>
       </c>
       <c r="V38" t="n">
-        <v>4055.286838127131</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3671.526537262299</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>3270.883139431251</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2869.946466379341</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7239,7 +7241,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G39" t="n">
         <v>184.7395020346666</v>
@@ -7248,28 +7250,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>916.2303367455215</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>425.1252146544881</v>
+        <v>3699.015328590044</v>
       </c>
       <c r="C40" t="n">
-        <v>425.1252146544881</v>
+        <v>3527.921956151761</v>
       </c>
       <c r="D40" t="n">
-        <v>425.1252146544881</v>
+        <v>3368.427311474671</v>
       </c>
       <c r="E40" t="n">
-        <v>425.1252146544881</v>
+        <v>3368.427311474671</v>
       </c>
       <c r="F40" t="n">
-        <v>260.4940887650794</v>
+        <v>3300.036378984747</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="I40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="J40" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.868537315501</v>
       </c>
       <c r="K40" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037739</v>
       </c>
       <c r="L40" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317799</v>
       </c>
       <c r="M40" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758292</v>
       </c>
       <c r="N40" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152543</v>
       </c>
       <c r="O40" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479017</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.65685472863</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.91216620654</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>4390.52039808645</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.702087168085</v>
+        <v>4390.52039808645</v>
       </c>
       <c r="U40" t="n">
-        <v>913.9039397142094</v>
+        <v>4390.52039808645</v>
       </c>
       <c r="V40" t="n">
-        <v>851.1687831888491</v>
+        <v>4390.52039808645</v>
       </c>
       <c r="W40" t="n">
-        <v>851.1687831888491</v>
+        <v>4111.450733595324</v>
       </c>
       <c r="X40" t="n">
-        <v>612.8249210485325</v>
+        <v>4111.450733595324</v>
       </c>
       <c r="Y40" t="n">
-        <v>612.8249210485325</v>
+        <v>3886.715034984089</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2419.796868038645</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C41" t="n">
-        <v>2009.672277351915</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D41" t="n">
-        <v>1605.208347444976</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E41" t="n">
-        <v>1190.868131961872</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F41" t="n">
-        <v>769.8377199155598</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G41" t="n">
-        <v>361.1094358083919</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>330.073544535078</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K41" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>2357.143036448109</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2581.059453340362</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3224.690309757467</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P41" t="n">
-        <v>3753.847007676619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3659.122578160285</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T41" t="n">
-        <v>3436.916094107144</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U41" t="n">
-        <v>3179.855602366654</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V41" t="n">
-        <v>2830.018047703134</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W41" t="n">
-        <v>2830.018047703134</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X41" t="n">
-        <v>2830.018047703134</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y41" t="n">
-        <v>2830.018047703134</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L42" t="n">
-        <v>736.976244986612</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M42" t="n">
-        <v>736.976244986612</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N42" t="n">
-        <v>1418.420178371929</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>411.6125713950159</v>
+        <v>3745.767347265336</v>
       </c>
       <c r="C43" t="n">
-        <v>240.5191989567324</v>
+        <v>3574.673974827052</v>
       </c>
       <c r="D43" t="n">
-        <v>240.5191989567324</v>
+        <v>3574.673974827052</v>
       </c>
       <c r="E43" t="n">
-        <v>240.5191989567324</v>
+        <v>3413.763159695372</v>
       </c>
       <c r="F43" t="n">
-        <v>75.88807306732367</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="G43" t="n">
-        <v>75.88807306732367</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="H43" t="n">
-        <v>75.88807306732367</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1605.286969688174</v>
+        <v>4597.751422943084</v>
       </c>
       <c r="S43" t="n">
-        <v>1605.286969688174</v>
+        <v>4411.359654822994</v>
       </c>
       <c r="T43" t="n">
-        <v>1605.286969688174</v>
+        <v>4171.810915799697</v>
       </c>
       <c r="U43" t="n">
-        <v>1322.488822234298</v>
+        <v>4171.810915799697</v>
       </c>
       <c r="V43" t="n">
-        <v>1048.60307717382</v>
+        <v>4171.810915799697</v>
       </c>
       <c r="W43" t="n">
-        <v>769.5334126826942</v>
+        <v>4171.810915799697</v>
       </c>
       <c r="X43" t="n">
-        <v>769.5334126826942</v>
+        <v>3933.46705365938</v>
       </c>
       <c r="Y43" t="n">
-        <v>599.3122777890603</v>
+        <v>3933.46705365938</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1234.456496290856</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>824.3319056041261</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>576.5800512333537</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>162.2398357502505</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>162.2398357502505</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>162.2398357502505</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>162.2398357502505</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2357.143036448109</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>3110.324053086727</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3753.954909503832</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2830.018047703134</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>2446.257746838303</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2045.614349007255</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>1644.677675955345</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>75.88807306732367</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M45" t="n">
-        <v>165.358102213698</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N45" t="n">
-        <v>1039.016194325316</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1742.97328487121</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>1742.97328487121</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2092.817749555194</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>900.1737366626871</v>
+        <v>3454.824786262162</v>
       </c>
       <c r="C46" t="n">
-        <v>729.0803642244036</v>
+        <v>3454.824786262162</v>
       </c>
       <c r="D46" t="n">
-        <v>569.5857195473136</v>
+        <v>3454.824786262162</v>
       </c>
       <c r="E46" t="n">
-        <v>408.6749044156331</v>
+        <v>3293.913971130481</v>
       </c>
       <c r="F46" t="n">
-        <v>244.0437785262243</v>
+        <v>3293.913971130481</v>
       </c>
       <c r="G46" t="n">
-        <v>76.79338745176776</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H46" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S46" t="n">
-        <v>1605.286969688174</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T46" t="n">
-        <v>1605.286969688174</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U46" t="n">
-        <v>1605.286969688174</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="V46" t="n">
-        <v>1605.286969688174</v>
+        <v>3679.560484873397</v>
       </c>
       <c r="W46" t="n">
-        <v>1326.217305197048</v>
+        <v>3679.560484873397</v>
       </c>
       <c r="X46" t="n">
-        <v>1087.873443056732</v>
+        <v>3679.560484873397</v>
       </c>
       <c r="Y46" t="n">
-        <v>1087.873443056732</v>
+        <v>3454.824786262162</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
@@ -7991,16 +7993,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>337.4068669225207</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>229.2480899138817</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,10 +8066,10 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>72.0488776838054</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>67.67798733913774</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>553.6531472828635</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,16 +8306,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>232.5803491573234</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>64.9612675518901</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8453,28 +8455,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>339.7024893595825</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>270.501948108873</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>363.7739143332567</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8702,16 +8704,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>249.6775557877071</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,22 +8777,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>318.246159677376</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>527.8697493391553</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8933,7 +8935,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>383.806019340837</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
         <v>853.701196452193</v>
@@ -8945,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>743.5567912259808</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>144.2828090848182</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>321.6714250266351</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>284.6094640806152</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9480,19 +9482,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>176.7732988419765</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>243.9932777523689</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>621.6393243851574</v>
@@ -9723,16 +9725,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>846.2776300172817</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9957,16 +9959,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>741.5205988334646</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10194,19 +10196,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>529.7246381472005</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>178.5117997957785</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10431,13 +10433,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>560.7155587704844</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>557.7944283533853</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
@@ -10674,7 +10676,7 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>557.7944283533856</v>
+        <v>527.9363279870926</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
@@ -10686,7 +10688,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>888.863919147406</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11069,7 +11071,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>319.0904896376829</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11078,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11136,19 +11138,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>741.5205988334644</v>
+        <v>363.0339661689075</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
@@ -11303,7 +11305,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11312,13 +11314,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>134.5066803135624</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,25 +11381,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M45" t="n">
-        <v>147.9380505529369</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>32.28731256679831</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>61.04710996974637</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>162.8814073089548</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>37.84312462897452</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>88.07154472741786</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300467</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>102.5059940158878</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>37.84312462897432</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>110.8572724611563</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.893130557884348</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24023,7 +24025,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>134.8292045232948</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24145,7 +24147,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>45.84716204233229</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.083197172522887</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>86.55376690862964</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -24382,7 +24384,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>63.23859787955889</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>62.56142803888736</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>96.14494677818607</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24500,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>75.53144250953579</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -24661,13 +24663,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>26.43728131980197</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24686,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>96.14494677818516</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24838,19 +24840,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>65.0182477354209</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>140.315078085551</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>223.0676163851326</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24974,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>223.0676163851317</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>84.34561705965478</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>23.26333715580824</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.083197172522915</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>102.505994015888</v>
       </c>
     </row>
     <row r="36">
@@ -25312,19 +25314,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>136.5105265353622</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>90.59452833414142</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.083197172522773</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,13 +25444,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>308.555861441229</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25549,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>95.27779146549022</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>209.0390826497666</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>25.43026328490163</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,7 +25794,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>20.63086416917965</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.96941808042536</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="D44" t="n">
-        <v>155.1449547808054</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>6.061183775722213</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2151194019983</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26071,25 +26073,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>696788.3989687703</v>
+        <v>709864.3835462873</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>564140.8187701681</v>
+        <v>637961.5058677001</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>564140.8187701682</v>
+        <v>637961.5058677001</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>637961.5058677002</v>
+        <v>637961.5058677001</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>637961.5058677002</v>
+        <v>637961.5058677001</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>637961.5058676999</v>
+        <v>637961.5058677002</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637961.5058677001</v>
+        <v>637961.5058677002</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>564140.8187701683</v>
+        <v>637961.5058677001</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>564140.8187701681</v>
+        <v>637961.5058676999</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>472358.9397941252</v>
       </c>
       <c r="C2" t="n">
-        <v>472358.9397941252</v>
+        <v>472358.9397941253</v>
       </c>
       <c r="D2" t="n">
-        <v>472358.9397941253</v>
+        <v>472358.939794125</v>
       </c>
       <c r="E2" t="n">
-        <v>371403.2867899021</v>
+        <v>419990.5679258858</v>
       </c>
       <c r="F2" t="n">
-        <v>371403.2867899023</v>
+        <v>419990.5679258858</v>
       </c>
       <c r="G2" t="n">
+        <v>419990.567925886</v>
+      </c>
+      <c r="H2" t="n">
         <v>419990.5679258857</v>
       </c>
-      <c r="H2" t="n">
-        <v>419990.5679258859</v>
-      </c>
       <c r="I2" t="n">
-        <v>419990.5679258859</v>
+        <v>419990.5679258858</v>
       </c>
       <c r="J2" t="n">
         <v>419990.5679258858</v>
       </c>
       <c r="K2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.567925886</v>
       </c>
       <c r="L2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.567925886</v>
       </c>
       <c r="M2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.5679258859</v>
       </c>
       <c r="N2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.567925886</v>
       </c>
       <c r="O2" t="n">
-        <v>371403.286789902</v>
+        <v>419990.5679258859</v>
       </c>
       <c r="P2" t="n">
-        <v>371403.2867899021</v>
+        <v>419990.5679258859</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100689</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093383</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647531</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404704</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,25 +26423,25 @@
         <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>184088.9587438941</v>
+        <v>99895.5165851995</v>
       </c>
       <c r="E4" t="n">
-        <v>39688.97475648369</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="F4" t="n">
-        <v>39688.97475648369</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="G4" t="n">
+        <v>44919.86535090264</v>
+      </c>
+      <c r="H4" t="n">
+        <v>44919.86535090264</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44919.86535090264</v>
+      </c>
+      <c r="J4" t="n">
         <v>44919.86535090263</v>
-      </c>
-      <c r="H4" t="n">
-        <v>44919.86535090265</v>
-      </c>
-      <c r="I4" t="n">
-        <v>44919.86535090265</v>
-      </c>
-      <c r="J4" t="n">
-        <v>44919.86535090265</v>
       </c>
       <c r="K4" t="n">
         <v>44919.86535090264</v>
@@ -26448,16 +26450,16 @@
         <v>44919.86535090265</v>
       </c>
       <c r="M4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="N4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="O4" t="n">
-        <v>39688.97475648369</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="P4" t="n">
-        <v>39688.97475648369</v>
+        <v>44919.86535090263</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520034</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26488,28 +26490,28 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="J5" t="n">
         <v>70865.21024487332</v>
       </c>
       <c r="K5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="L5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="M5" t="n">
         <v>70865.21024487332</v>
       </c>
       <c r="N5" t="n">
+        <v>70865.21024487333</v>
+      </c>
+      <c r="O5" t="n">
         <v>70865.21024487332</v>
       </c>
-      <c r="O5" t="n">
-        <v>57674.93553116599</v>
-      </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47945.40607861941</v>
+        <v>47945.40607861956</v>
       </c>
       <c r="C6" t="n">
-        <v>222900.9159717336</v>
+        <v>222900.9159717337</v>
       </c>
       <c r="D6" t="n">
-        <v>222900.9159717337</v>
+        <v>101634.8829436562</v>
       </c>
       <c r="E6" t="n">
-        <v>146684.7097125018</v>
+        <v>277236.538149176</v>
       </c>
       <c r="F6" t="n">
-        <v>274039.3765022526</v>
+        <v>304205.4923301098</v>
       </c>
       <c r="G6" t="n">
-        <v>244744.037644148</v>
+        <v>304205.49233011</v>
       </c>
       <c r="H6" t="n">
-        <v>304205.4923301099</v>
+        <v>304205.4923301098</v>
       </c>
       <c r="I6" t="n">
         <v>304205.4923301099</v>
@@ -26546,22 +26548,22 @@
         <v>167610.6915242149</v>
       </c>
       <c r="K6" t="n">
+        <v>304205.49233011</v>
+      </c>
+      <c r="L6" t="n">
+        <v>164206.1814653569</v>
+      </c>
+      <c r="M6" t="n">
+        <v>281696.2275560629</v>
+      </c>
+      <c r="N6" t="n">
+        <v>304205.49233011</v>
+      </c>
+      <c r="O6" t="n">
         <v>304205.4923301099</v>
       </c>
-      <c r="L6" t="n">
-        <v>304205.4923301098</v>
-      </c>
-      <c r="M6" t="n">
-        <v>197910.6803122351</v>
-      </c>
-      <c r="N6" t="n">
-        <v>304205.4923301098</v>
-      </c>
-      <c r="O6" t="n">
-        <v>274039.3765022524</v>
-      </c>
       <c r="P6" t="n">
-        <v>274039.3765022525</v>
+        <v>304205.4923301099</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.221568342111</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720855</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067389</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700252</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720855</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067367</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720855</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067389</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,19 +27384,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>231.1760015678652</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>231.4672985510662</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -27442,10 +27444,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>203.4640111556025</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>152.1234863376399</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>231.1760015678653</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,10 +27785,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27828,7 +27830,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>249.7674431083085</v>
+        <v>72.74517369164079</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>393.0160384451181</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>352.9525522776091</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28023,7 +28025,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>270.9393562828594</v>
+        <v>116.7622644582235</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
@@ -34711,16 +34713,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>244.2170912967376</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34784,10 +34786,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>14.48459394538798</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>244.2170912967376</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>460.0037840019794</v>
-      </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35024,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>179.3869557635734</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35173,28 +35175,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>244.2170912967377</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>176.8525848279889</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>306.2096305948393</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>156.487780161924</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>265.052766283626</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35653,7 +35655,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>290.5157948837916</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
         <v>760.7889056955737</v>
@@ -35665,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>685.9925074875633</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>91.08941569106823</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>263.9199460266351</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9168455757764</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>120.9475160573611</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>187.8787539415198</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>567.3796893823536</v>
@@ -36443,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>788.7133462788643</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>473.6101143363514</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>504.6010349596354</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
@@ -37394,7 +37396,7 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>504.6010349596356</v>
+        <v>474.7429345933426</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>831.2996354089886</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>226.1781988810636</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37798,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>688.3272054397145</v>
+        <v>309.8405727751575</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
@@ -38023,7 +38025,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38032,13 +38034,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>40.8573170326782</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M45" t="n">
-        <v>90.3737668145195</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1919741.534695401</v>
+        <v>1918428.889239822</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>178.7295147772061</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
@@ -676,7 +676,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>76.33211384749302</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>84.38269596479005</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -879,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>32.49641236331089</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -913,7 +913,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>165.4609622848717</v>
+        <v>53.75979026773425</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>207.2249922876963</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>194.8196642860187</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1135,7 +1135,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>13.00730633474442</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1144,16 +1144,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>251.6888121540095</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1201,7 +1201,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>28.01490760909595</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1350,16 +1350,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>154.3846231516498</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>53.20093248929918</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>53.20093248929926</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>149.3339408773903</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>59.60693431616814</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1615,13 +1615,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>372.3536886992977</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1660,7 +1660,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -1669,7 +1669,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>157.4229911737221</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1858,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>219.2279701699388</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>216.6467621941107</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>47.04242576916274</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -2019,10 +2019,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>114.4244863032721</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>308.0655216241162</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>24.4725024570689</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>142.5359303380066</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>358.7938392237638</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2383,7 +2383,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>51.94398755715822</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2535,16 +2535,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>227.0672929610291</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.5575398289572</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2563,7 +2563,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>373.8316553010464</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2617,7 +2617,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>161.6218091235291</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>227.0672929610291</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2800,7 +2800,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>314.0518665500871</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2851,13 +2851,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>88.08110241150655</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.40174340593345</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>233.7797060869919</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V32" t="n">
-        <v>123.2715627317524</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>55.69551283691951</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>78.63919757085986</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3274,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>347.6353852893851</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>294.4213123055028</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>249.3395807242917</v>
       </c>
       <c r="V37" t="n">
-        <v>180.5523592757318</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3562,7 +3562,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>37.78331767565507</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>39.93142548241784</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>67.70702316502442</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>181.1076095438272</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.73179601342657</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>294.4213123055028</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>63.78912697217469</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>220.2647746254034</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>49.02746394088942</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -4030,10 +4030,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>159.5167033879898</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>146.665873157753</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1455.826617762472</v>
+        <v>1782.763876502378</v>
       </c>
       <c r="C2" t="n">
-        <v>1449.742431116146</v>
+        <v>1372.639285815648</v>
       </c>
       <c r="D2" t="n">
-        <v>1449.31890524961</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E2" t="n">
-        <v>1268.784041838291</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4330,28 +4330,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N2" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4375,7 +4375,7 @@
         <v>1866.047797426961</v>
       </c>
       <c r="Y2" t="n">
-        <v>1866.047797426961</v>
+        <v>1788.944652126463</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
+        <v>690.3841994575342</v>
+      </c>
+      <c r="M3" t="n">
+        <v>690.3841994575342</v>
+      </c>
+      <c r="N3" t="n">
+        <v>690.3841994575342</v>
+      </c>
+      <c r="O3" t="n">
         <v>1207.22713412386</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>1724.070068790185</v>
       </c>
-      <c r="N3" t="n">
-        <v>1738.409816796119</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1738.409816796119</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1738.409816796119</v>
-      </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>708.4628400537953</v>
+        <v>603.3526230047729</v>
       </c>
       <c r="C4" t="n">
-        <v>708.4628400537953</v>
+        <v>518.1175765756921</v>
       </c>
       <c r="D4" t="n">
-        <v>708.4628400537953</v>
+        <v>358.622931898602</v>
       </c>
       <c r="E4" t="n">
-        <v>708.4628400537953</v>
+        <v>358.622931898602</v>
       </c>
       <c r="F4" t="n">
-        <v>708.4628400537953</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>708.4628400537953</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1816.589795035412</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1577.041056012114</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U4" t="n">
-        <v>1294.242908558238</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V4" t="n">
-        <v>1020.35716349776</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="W4" t="n">
-        <v>741.2874990066346</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="X4" t="n">
-        <v>708.4628400537953</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="Y4" t="n">
-        <v>708.4628400537953</v>
+        <v>603.3526230047729</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1378.723472461974</v>
+        <v>1285.591565793851</v>
       </c>
       <c r="C5" t="n">
-        <v>1372.639285815648</v>
+        <v>1279.507379147526</v>
       </c>
       <c r="D5" t="n">
-        <v>1372.215759949112</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E5" t="n">
-        <v>957.8755444660092</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F5" t="n">
-        <v>536.8451324196967</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4570,22 +4570,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
         <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>1571.411346813777</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4600,19 +4600,19 @@
         <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.973206274203</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.973206274203</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="X5" t="n">
-        <v>1785.840921137969</v>
+        <v>1291.772341417937</v>
       </c>
       <c r="Y5" t="n">
-        <v>1384.904248086059</v>
+        <v>1291.772341417937</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
         <v>469.7036984844747</v>
@@ -4634,37 +4634,37 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960218</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949009</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227552</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>2048.100145893877</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.1111315252759</v>
+        <v>682.8713730711994</v>
       </c>
       <c r="C7" t="n">
-        <v>158.1111315252759</v>
+        <v>511.7780006329159</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>352.2833559558259</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4758,19 +4758,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1361.845808222476</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1087.960063161998</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>808.8903986708722</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X7" t="n">
-        <v>570.5465365305556</v>
+        <v>1095.306778076479</v>
       </c>
       <c r="Y7" t="n">
-        <v>345.8108379193203</v>
+        <v>870.5710794652438</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1740.939116293115</v>
+        <v>2398.93628108551</v>
       </c>
       <c r="C8" t="n">
-        <v>1727.800423025697</v>
+        <v>1988.81169039878</v>
       </c>
       <c r="D8" t="n">
-        <v>1323.336493118757</v>
+        <v>1584.347760491841</v>
       </c>
       <c r="E8" t="n">
-        <v>908.996277635654</v>
+        <v>1170.007545008737</v>
       </c>
       <c r="F8" t="n">
-        <v>892.0062696297456</v>
+        <v>748.977132962425</v>
       </c>
       <c r="G8" t="n">
-        <v>483.2779855225778</v>
+        <v>340.2488488552572</v>
       </c>
       <c r="H8" t="n">
-        <v>172.3694881502957</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351232</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441627</v>
+        <v>624.1772265764083</v>
       </c>
       <c r="L8" t="n">
-        <v>1590.954097856401</v>
+        <v>1336.768626388646</v>
       </c>
       <c r="M8" t="n">
-        <v>2367.272688848155</v>
+        <v>2053.756695598272</v>
       </c>
       <c r="N8" t="n">
-        <v>3120.453705486773</v>
+        <v>2806.93771223689</v>
       </c>
       <c r="O8" t="n">
-        <v>3764.084561903878</v>
+        <v>3450.568568653995</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883587</v>
+        <v>3979.725266573146</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678879</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368444</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4165.605198162544</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>3943.398714109403</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>3686.338222368913</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="V8" t="n">
-        <v>3336.500667705394</v>
+        <v>3593.561159445878</v>
       </c>
       <c r="W8" t="n">
-        <v>2952.740366840562</v>
+        <v>3209.800858581047</v>
       </c>
       <c r="X8" t="n">
-        <v>2552.096969009515</v>
+        <v>2809.157460749999</v>
       </c>
       <c r="Y8" t="n">
-        <v>2151.160295957605</v>
+        <v>2809.157460749999</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>764.8485673539033</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>630.8534961028489</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>513.9563383222413</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>393.4635223145693</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>284.5036424970739</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114126</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7663168471287</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736888</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736888</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="L9" t="n">
-        <v>747.1058973866571</v>
+        <v>1220.956564145355</v>
       </c>
       <c r="M9" t="n">
-        <v>1590.082978081224</v>
+        <v>1220.956564145355</v>
       </c>
       <c r="N9" t="n">
-        <v>1590.082978081224</v>
+        <v>1220.956564145355</v>
       </c>
       <c r="O9" t="n">
-        <v>2132.506921317869</v>
+        <v>1220.956564145355</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>1782.662456633885</v>
       </c>
       <c r="Q9" t="n">
         <v>2132.506921317869</v>
@@ -4910,16 +4910,16 @@
         <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2024.516911432178</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
         <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.824236757405</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1454.112709750439</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
         <v>1240.879541486767</v>
@@ -4928,7 +4928,7 @@
         <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>905.1515999894899</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.9285405990494</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="C10" t="n">
-        <v>246.9285405990494</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="D10" t="n">
-        <v>246.9285405990494</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="E10" t="n">
-        <v>86.01772546736888</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736888</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736888</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736888</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>100.1002748725794</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>254.6526025948174</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>514.549702874878</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>803.8137593153713</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1084.652541709622</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1344.213152036096</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
         <v>1549.888592285708</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1429.024853968129</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1189.476114944831</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>906.6779674909556</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="V10" t="n">
-        <v>750.7339037014103</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="W10" t="n">
-        <v>471.6642392102847</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="X10" t="n">
-        <v>471.6642392102847</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.9285405990494</v>
+        <v>547.5195041058769</v>
       </c>
     </row>
     <row r="11">
@@ -5026,25 +5026,25 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>1287.649206862142</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>866.6187948158295</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>457.8905107086616</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>146.9820133363796</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5123,22 +5123,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M12" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N12" t="n">
-        <v>966.9017898022406</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O12" t="n">
-        <v>1670.858880348135</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.7425299376769</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C13" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
         <v>93.2436976906228</v>
@@ -5226,25 +5226,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1436.250826191383</v>
+        <v>1471.800229788857</v>
       </c>
       <c r="U13" t="n">
-        <v>1436.250826191383</v>
+        <v>1189.002082334981</v>
       </c>
       <c r="V13" t="n">
-        <v>1162.365081130905</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="W13" t="n">
-        <v>883.2954166397794</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="X13" t="n">
-        <v>644.9515544994629</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y13" t="n">
-        <v>584.7425299376769</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>911.5343697921442</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
         <v>490.5039577458317</v>
@@ -5278,7 +5278,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
         <v>885.5886702674168</v>
@@ -5308,22 +5308,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M15" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N15" t="n">
-        <v>844.5103911440685</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O15" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2140.463105868917</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C17" t="n">
-        <v>1730.338515182187</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D17" t="n">
-        <v>1325.874585275247</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E17" t="n">
-        <v>911.5343697921442</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F17" t="n">
-        <v>490.5039577458317</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4085.862211944715</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V17" t="n">
-        <v>3736.024657281195</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W17" t="n">
-        <v>3352.264356416364</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X17" t="n">
-        <v>2951.620958585316</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y17" t="n">
-        <v>2550.684285533406</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M18" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>966.9017898022406</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
         <v>1228.182536368609</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1070.600505101703</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="C19" t="n">
-        <v>899.507132663419</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1421.789586791648</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.369875986873</v>
+        <v>1421.789586791648</v>
       </c>
       <c r="U19" t="n">
-        <v>1537.369875986873</v>
+        <v>1138.991439337772</v>
       </c>
       <c r="V19" t="n">
-        <v>1537.369875986873</v>
+        <v>865.1056942772943</v>
       </c>
       <c r="W19" t="n">
-        <v>1258.300211495747</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="X19" t="n">
-        <v>1258.300211495747</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="Y19" t="n">
-        <v>1258.300211495747</v>
+        <v>586.0360297861687</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2459.725286714852</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>2049.600696028122</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1645.136766121183</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1230.796550638079</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>809.7661385917668</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>401.0378544845989</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
         <v>885.5886702674168</v>
@@ -5794,10 +5794,10 @@
         <v>3671.526537262299</v>
       </c>
       <c r="X20" t="n">
-        <v>3270.883139431251</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2869.946466379341</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>735.0499203580262</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>405.4028154761649</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C22" t="n">
-        <v>234.3094430378814</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D22" t="n">
-        <v>234.3094430378814</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E22" t="n">
-        <v>209.5897435862967</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F22" t="n">
-        <v>209.5897435862967</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G22" t="n">
-        <v>209.5897435862967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1478.666907101365</v>
       </c>
       <c r="T22" t="n">
-        <v>1196.702087168085</v>
+        <v>1478.666907101365</v>
       </c>
       <c r="U22" t="n">
-        <v>1196.702087168085</v>
+        <v>1478.666907101365</v>
       </c>
       <c r="V22" t="n">
-        <v>922.8163421076072</v>
+        <v>1478.666907101365</v>
       </c>
       <c r="W22" t="n">
-        <v>643.7466776164815</v>
+        <v>1478.666907101365</v>
       </c>
       <c r="X22" t="n">
-        <v>405.4028154761649</v>
+        <v>1478.666907101365</v>
       </c>
       <c r="Y22" t="n">
-        <v>405.4028154761649</v>
+        <v>1253.93120849013</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2502.88112528686</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>2092.75653460013</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1688.292604693191</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1273.952389210087</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>852.921977163775</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
-        <v>1598.180070079656</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M23" t="n">
-        <v>2374.49866107141</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N23" t="n">
-        <v>3127.679677710028</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
-        <v>4300.467232046284</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q23" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R23" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.903809325241</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.6973252721</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.63683353161</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.799278868091</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003259</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3314.038978003259</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2913.102304951349</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6056,7 +6056,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
         <v>184.7395020346666</v>
@@ -6065,28 +6065,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.24369769062281</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>640.9315149955648</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>469.8381425572813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>310.3434978801914</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>310.3434978801914</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>145.7123719907826</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>145.7123719907826</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>145.7123719907826</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
         <v>107.3262470958333</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>828.6312213896092</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>828.6312213896092</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>828.6312213896092</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y25" t="n">
-        <v>828.6312213896092</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E26" t="n">
         <v>1320.262653899312</v>
@@ -6226,7 +6226,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6265,13 +6265,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3697.79927886809</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3297.155881037042</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2896.219207985132</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.723755216753</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.723755216753</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>1187.723755216753</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>908.6540907256278</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>670.3102285853113</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>445.574529974076</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2452.075282119332</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>2041.950691432602</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1637.486761525663</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
         <v>1320.262653899312</v>
@@ -6460,55 +6460,55 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
-        <v>1598.180070079656</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M29" t="n">
-        <v>2374.49866107141</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N29" t="n">
-        <v>3127.679677710028</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
-        <v>4300.467232046284</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q29" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R29" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.903809325241</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.6973252721</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.63683353161</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
-        <v>4047.63683353161</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W29" t="n">
-        <v>3663.876532666779</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X29" t="n">
-        <v>3263.233134835731</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2862.296461783821</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F30" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G30" t="n">
         <v>184.7395020346666</v>
@@ -6539,31 +6539,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I30" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>754.3318696099111</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8995485738499</v>
+        <v>596.2185870927716</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8995485738499</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="D31" t="n">
-        <v>421.4049038967599</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E31" t="n">
-        <v>260.4940887650794</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F31" t="n">
         <v>260.4940887650794</v>
       </c>
       <c r="G31" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
         <v>107.3262470958333</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1603.044873699419</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1416.653105579329</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>1416.653105579329</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>1133.854958125454</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V31" t="n">
-        <v>859.9692130649755</v>
+        <v>875.2882515838972</v>
       </c>
       <c r="W31" t="n">
-        <v>580.8995485738499</v>
+        <v>596.2185870927716</v>
       </c>
       <c r="X31" t="n">
-        <v>580.8995485738499</v>
+        <v>596.2185870927716</v>
       </c>
       <c r="Y31" t="n">
-        <v>580.8995485738499</v>
+        <v>596.2185870927716</v>
       </c>
     </row>
     <row r="32">
@@ -6694,13 +6694,13 @@
         <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6721,19 +6721,19 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R32" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4182.91790873751</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
         <v>4058.401178705436</v>
@@ -6767,7 +6767,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
         <v>184.7395020346666</v>
@@ -6776,28 +6776,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.24369769062281</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K33" t="n">
-        <v>93.24369769062281</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L33" t="n">
-        <v>93.24369769062281</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851895</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>776.6791273693823</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C34" t="n">
-        <v>776.6791273693823</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D34" t="n">
-        <v>617.1844826922922</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>456.2736675606117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>376.8401346607533</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
         <v>107.3262470958333</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1297.821136963575</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1015.022989509699</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.022989509699</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>1015.022989509699</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>776.6791273693823</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>776.6791273693823</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6970,19 +6970,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3571.099469743748</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X35" t="n">
-        <v>3170.456071912701</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1406.216283632599</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
         <v>2110.173374178493</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>425.2478852605868</v>
+        <v>578.280283388802</v>
       </c>
       <c r="C37" t="n">
-        <v>254.1545128223033</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D37" t="n">
-        <v>254.1545128223033</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1111.429368843485</v>
+        <v>1131.235692940406</v>
       </c>
       <c r="V37" t="n">
-        <v>929.0532483629478</v>
+        <v>857.3499478799276</v>
       </c>
       <c r="W37" t="n">
-        <v>649.9835838718221</v>
+        <v>578.280283388802</v>
       </c>
       <c r="X37" t="n">
-        <v>649.9835838718221</v>
+        <v>578.280283388802</v>
       </c>
       <c r="Y37" t="n">
-        <v>425.2478852605868</v>
+        <v>578.280283388802</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
         <v>885.5886702674165</v>
@@ -7195,31 +7195,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.184884531141</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4182.91790873751</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7241,7 +7241,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
         <v>184.7395020346666</v>
@@ -7250,31 +7250,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.24369769062281</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>916.2303367455215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3699.015328590044</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="C40" t="n">
-        <v>3527.921956151761</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="D40" t="n">
-        <v>3368.427311474671</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="E40" t="n">
-        <v>3368.427311474671</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F40" t="n">
-        <v>3300.036378984747</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G40" t="n">
-        <v>3132.78598791029</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.78598791029</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.78598791029</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.868537315501</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037739</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317799</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758292</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152543</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479017</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.65685472863</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.184884531141</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4576.91216620654</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>4390.52039808645</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>4390.52039808645</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U40" t="n">
-        <v>4390.52039808645</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V40" t="n">
-        <v>4390.52039808645</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W40" t="n">
-        <v>4111.450733595324</v>
+        <v>558.2002651120216</v>
       </c>
       <c r="X40" t="n">
-        <v>4111.450733595324</v>
+        <v>558.2002651120216</v>
       </c>
       <c r="Y40" t="n">
-        <v>3886.715034984089</v>
+        <v>558.2002651120216</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
         <v>93.2436976906228</v>
@@ -7411,7 +7411,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
         <v>885.5886702674165</v>
@@ -7426,7 +7426,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
         <v>4300.467232046283</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4576.597211790305</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4354.390727737164</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4097.330235996674</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V41" t="n">
-        <v>3747.492681333154</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W41" t="n">
-        <v>3363.732380468323</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X41" t="n">
-        <v>2963.088982637275</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y41" t="n">
-        <v>2562.152309585365</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>286.056555253256</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>1129.033635947823</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3745.767347265336</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C43" t="n">
-        <v>3574.673974827052</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D43" t="n">
-        <v>3574.673974827052</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E43" t="n">
-        <v>3413.763159695372</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4597.751422943084</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4411.359654822994</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>4171.810915799697</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>4171.810915799697</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>4171.810915799697</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="W43" t="n">
-        <v>4171.810915799697</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="X43" t="n">
-        <v>3933.46705365938</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y43" t="n">
-        <v>3933.46705365938</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
         <v>2052.715036606428</v>
@@ -7678,22 +7678,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>423.0977207349383</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>1266.074801429505</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3454.824786262162</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C46" t="n">
-        <v>3454.824786262162</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D46" t="n">
-        <v>3454.824786262162</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>3293.913971130481</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>3293.913971130481</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>4475.79311641105</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>4236.244377387751</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U46" t="n">
-        <v>3953.446229933875</v>
+        <v>1389.22252936288</v>
       </c>
       <c r="V46" t="n">
-        <v>3679.560484873397</v>
+        <v>1115.336784302402</v>
       </c>
       <c r="W46" t="n">
-        <v>3679.560484873397</v>
+        <v>836.267119811276</v>
       </c>
       <c r="X46" t="n">
-        <v>3679.560484873397</v>
+        <v>836.267119811276</v>
       </c>
       <c r="Y46" t="n">
-        <v>3454.824786262162</v>
+        <v>611.5314212000407</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
@@ -7987,22 +7987,22 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>229.2480899138817</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>67.67798733913774</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>73.48479305079316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>337.1293820533569</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>64.9612675518901</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8461,7 +8461,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>877.4504173780091</v>
+        <v>817.520597396061</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
@@ -8470,13 +8470,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>270.501948108873</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139343</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>527.8697493391553</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>144.2828090848182</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>321.6714250266351</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9479,16 +9479,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>243.9932777523689</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9500,7 +9500,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M24" t="n">
-        <v>846.2776300172817</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>178.5117997957785</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533853</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>527.9363279870926</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10828,7 +10828,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
-        <v>888.863919147406</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>363.0339661689075</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>389.300405673794</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.28731256679831</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -23466,25 +23466,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>87.81931075567465</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>162.8814073089548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,13 +23503,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>37.84312462897452</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>222.499706682461</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>88.57144222862041</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>37.84312462897432</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>110.8572724611563</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>70.10336413561669</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>88.57144222862075</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>134.8292045232948</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>41.99192010088223</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>45.84716204233229</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -24384,7 +24384,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>63.23859787955889</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>62.56142803888736</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24612,7 +24612,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>75.53144250953579</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>96.14494677818516</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>308.5558614412304</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.0182477354209</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>37.3671815228814</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V32" t="n">
-        <v>223.0676163851317</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>130.1271964931844</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>84.34561705965478</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>32.28731256679799</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>102.505994015888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,16 +25314,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>30.63058525504539</v>
       </c>
       <c r="V37" t="n">
-        <v>90.59452833414142</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>308.555861441229</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>95.27779146549022</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>95.17135830238715</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>49.19646844041357</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>102.505994015888</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.63086416917965</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>50.88211298446981</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>6.061183775722213</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.3042928215841</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>637961.5058677001</v>
+        <v>637961.5058676999</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>637961.5058677001</v>
+        <v>637961.5058677002</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637961.5058677001</v>
+        <v>637961.5058677</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>637961.5058677002</v>
+        <v>637961.5058677001</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637961.5058677001</v>
+        <v>637961.5058677</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>637961.5058677001</v>
+        <v>637961.5058677002</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>637961.5058676999</v>
+        <v>637961.5058677002</v>
       </c>
     </row>
   </sheetData>
@@ -26316,25 +26316,25 @@
         <v>472358.9397941252</v>
       </c>
       <c r="C2" t="n">
-        <v>472358.9397941253</v>
+        <v>472358.9397941252</v>
       </c>
       <c r="D2" t="n">
-        <v>472358.939794125</v>
+        <v>472358.9397941252</v>
       </c>
       <c r="E2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.567925886</v>
       </c>
       <c r="F2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.567925886</v>
       </c>
       <c r="G2" t="n">
         <v>419990.567925886</v>
       </c>
       <c r="H2" t="n">
-        <v>419990.5679258857</v>
+        <v>419990.567925886</v>
       </c>
       <c r="I2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.5679258859</v>
       </c>
       <c r="J2" t="n">
         <v>419990.5679258858</v>
@@ -26346,13 +26346,13 @@
         <v>419990.567925886</v>
       </c>
       <c r="M2" t="n">
+        <v>419990.567925886</v>
+      </c>
+      <c r="N2" t="n">
         <v>419990.5679258859</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>419990.567925886</v>
-      </c>
-      <c r="O2" t="n">
-        <v>419990.5679258859</v>
       </c>
       <c r="P2" t="n">
         <v>419990.5679258859</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100689</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.95418093383</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647531</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404704</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>99895.5165851995</v>
+        <v>99895.51658519969</v>
       </c>
       <c r="E4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="F4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="G4" t="n">
         <v>44919.86535090264</v>
@@ -26441,13 +26441,13 @@
         <v>44919.86535090264</v>
       </c>
       <c r="J4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="K4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="L4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="M4" t="n">
         <v>44919.86535090264</v>
@@ -26459,7 +26459,7 @@
         <v>44919.86535090264</v>
       </c>
       <c r="P4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520034</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26490,22 +26490,22 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="J5" t="n">
         <v>70865.21024487332</v>
       </c>
       <c r="K5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="L5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="M5" t="n">
         <v>70865.21024487332</v>
       </c>
       <c r="N5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47945.40607861956</v>
+        <v>47945.40607861944</v>
       </c>
       <c r="C6" t="n">
-        <v>222900.9159717337</v>
+        <v>222900.9159717335</v>
       </c>
       <c r="D6" t="n">
-        <v>101634.8829436562</v>
+        <v>101634.8829436568</v>
       </c>
       <c r="E6" t="n">
-        <v>277236.538149176</v>
+        <v>277055.9575565266</v>
       </c>
       <c r="F6" t="n">
-        <v>304205.4923301098</v>
+        <v>304024.9117374609</v>
       </c>
       <c r="G6" t="n">
-        <v>304205.49233011</v>
+        <v>304024.9117374609</v>
       </c>
       <c r="H6" t="n">
-        <v>304205.4923301098</v>
+        <v>304024.9117374609</v>
       </c>
       <c r="I6" t="n">
-        <v>304205.4923301099</v>
+        <v>304024.9117374608</v>
       </c>
       <c r="J6" t="n">
-        <v>167610.6915242149</v>
+        <v>167430.1109315658</v>
       </c>
       <c r="K6" t="n">
-        <v>304205.49233011</v>
+        <v>304024.9117374609</v>
       </c>
       <c r="L6" t="n">
-        <v>164206.1814653569</v>
+        <v>164025.6008727082</v>
       </c>
       <c r="M6" t="n">
-        <v>281696.2275560629</v>
+        <v>281515.6469634135</v>
       </c>
       <c r="N6" t="n">
-        <v>304205.49233011</v>
+        <v>304024.9117374608</v>
       </c>
       <c r="O6" t="n">
-        <v>304205.4923301099</v>
+        <v>304024.9117374609</v>
       </c>
       <c r="P6" t="n">
-        <v>304205.4923301099</v>
+        <v>304024.9117374608</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>1075.221568342111</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
         <v>1165.546221132785</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720855</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067389</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700252</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720855</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067367</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720855</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067389</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>231.4672985510662</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>320.5951924738978</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>84.99974274911061</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -27551,7 +27551,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>203.4640111556025</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>231.1760015678653</v>
+        <v>342.8771735850028</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -27791,10 +27791,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>72.74517369164079</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>41.14075923289474</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>393.0160384451181</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>56.11060024454969</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>134.9699070214187</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>116.7622644582235</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,22 +34707,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>14.48459394538775</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>244.2170912967376</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>10.70163254908636</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35181,7 +35181,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>784.1601929209636</v>
+        <v>724.2303729390155</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
@@ -35190,13 +35190,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>176.8525848279889</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030853</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>473.6101143363516</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>91.08941569106823</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>263.9199460266351</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>187.8787539415198</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M24" t="n">
-        <v>788.7133462788643</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>120.947516057361</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596354</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>474.7429345933426</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37548,7 +37548,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
-        <v>831.2996354089886</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>309.8405727751575</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
